--- a/data/标曲计算示例数据.xlsx
+++ b/data/标曲计算示例数据.xlsx
@@ -5,22 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JianGuoYun\GitHub\shiny4qPCR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B583C7B-4C44-4D9B-84EA-AA1ECC1E8914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4121CC5-BE44-4610-B673-7DC59700A689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1077,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="A1:W97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="H36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7504,8 +7513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DABC354-5D93-429E-BF7A-8AFE64E5870C}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7556,40 +7565,52 @@
         <v>225</v>
       </c>
       <c r="B2" s="1">
-        <v>14</v>
+        <f>B3*4</f>
+        <v>16384</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <f t="shared" ref="C2:M5" si="0">C3*4</f>
+        <v>16384</v>
       </c>
       <c r="D2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
       <c r="E2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
       <c r="F2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
       <c r="G2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
       <c r="H2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
       <c r="I2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
       <c r="J2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
       <c r="K2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
       <c r="L2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
       <c r="M2" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -7597,40 +7618,52 @@
         <v>230</v>
       </c>
       <c r="B3" s="1">
-        <v>12</v>
+        <f>B4*4</f>
+        <v>4096</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="D3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="E3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="F3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="G3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="H3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="I3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="J3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="K3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="L3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
       <c r="M3" s="1">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>4096</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -7638,40 +7671,52 @@
         <v>231</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <f>B5*4</f>
+        <v>1024</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="J4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="K4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="L4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="M4" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -7679,40 +7724,52 @@
         <v>232</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <f>B6*4</f>
+        <v>256</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="D5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="E5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="F5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="G5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="H5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="I5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="J5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="K5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="L5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
       <c r="M5" s="1">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -7720,40 +7777,40 @@
         <v>233</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -7761,40 +7818,40 @@
         <v>234</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -7802,40 +7859,40 @@
         <v>235</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -7843,44 +7900,45 @@
         <v>236</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>